--- a/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_100人_センサ毎.xlsx
+++ b/LplcOpenDataConverter/LplcOpenDataConverter/results/記録用/登校_100人_センサ毎.xlsx
@@ -54,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="178" formatCode="0.0000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,10 +114,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -152,38 +152,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -280,16 +249,72 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="480000368"/>
-        <c:axId val="480000760"/>
+        <c:axId val="439654040"/>
+        <c:axId val="439654824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="480000368"/>
+        <c:axId val="439654040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>センサ番号</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -311,7 +336,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -326,7 +351,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480000760"/>
+        <c:crossAx val="439654824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -334,9 +359,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480000760"/>
+        <c:axId val="439654824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -354,6 +380,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="2400"/>
+                  <a:t>第三者プライバシデータ流出比</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -370,7 +452,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -385,7 +467,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480000368"/>
+        <c:crossAx val="439654040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,16 +1063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1278,7 +1360,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1320,7 +1402,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D20" si="0">B3/C3</f>
+        <f t="shared" ref="D3:D19" si="0">B3/C3</f>
         <v>1</v>
       </c>
     </row>
